--- a/artifacts/hot_encode_rozszerzone.xlsx
+++ b/artifacts/hot_encode_rozszerzone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomek\Desktop\wagesInPoland2021\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F80CA9-D6F8-4897-A5E4-51D78C91B6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A51161C-C162-488C-A454-4A9922A31AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P731" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE745" sqref="AE745"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5713,7 +5713,7 @@
         <v>4</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H87">
         <v>14500</v>
